--- a/EXPENSAS EDIFICIO.xlsx
+++ b/EXPENSAS EDIFICIO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>00-01</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>C/GASTO 65.000</t>
+  </si>
+  <si>
+    <t>c/GASTO 90.000</t>
+  </si>
+  <si>
+    <t>C/95.000</t>
+  </si>
+  <si>
+    <t>C/100.000</t>
   </si>
 </sst>
 </file>
@@ -120,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -143,31 +152,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -193,24 +182,23 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,25 +653,30 @@
     <col min="3" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
@@ -696,8 +689,17 @@
       <c r="F2" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -717,11 +719,23 @@
         <v>1351</v>
       </c>
       <c r="F3" s="11">
-        <f t="shared" ref="F3:F10" si="3">+B3*$E$17/100</f>
+        <f t="shared" ref="F3:G10" si="3">+B3*$E$17/100</f>
         <v>1544</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="3">
+        <f>+B3*$E$18/100</f>
+        <v>1737</v>
+      </c>
+      <c r="H3" s="23">
+        <f>+B3*$E$19/100</f>
+        <v>1833.5</v>
+      </c>
+      <c r="I3" s="3">
+        <f>+B3*$E$20/100</f>
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -744,8 +758,20 @@
         <f t="shared" si="3"/>
         <v>2976</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G10" si="4">+B4*$E$18/100</f>
+        <v>3348</v>
+      </c>
+      <c r="H4" s="23">
+        <f t="shared" ref="H4:H10" si="5">+B4*$E$19/100</f>
+        <v>3534</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:I10" si="6">+B4*$E$20/100</f>
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -768,8 +794,20 @@
         <f t="shared" si="3"/>
         <v>2040</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="3">
+        <f t="shared" si="4"/>
+        <v>2294.9999999999995</v>
+      </c>
+      <c r="H5" s="23">
+        <f t="shared" si="5"/>
+        <v>2422.4999999999995</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="6"/>
+        <v>2549.9999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -792,8 +830,20 @@
         <f t="shared" si="3"/>
         <v>1584</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="3">
+        <f t="shared" si="4"/>
+        <v>1782</v>
+      </c>
+      <c r="H6" s="23">
+        <f t="shared" si="5"/>
+        <v>1881</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="6"/>
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -816,8 +866,20 @@
         <f t="shared" si="3"/>
         <v>2232</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="3">
+        <f t="shared" si="4"/>
+        <v>2511</v>
+      </c>
+      <c r="H7" s="23">
+        <f t="shared" si="5"/>
+        <v>2650.5</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="6"/>
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -840,8 +902,20 @@
         <f t="shared" si="3"/>
         <v>2248</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="3">
+        <f t="shared" si="4"/>
+        <v>2529</v>
+      </c>
+      <c r="H8" s="23">
+        <f t="shared" si="5"/>
+        <v>2669.5</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="6"/>
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -864,8 +938,20 @@
         <f t="shared" si="3"/>
         <v>1952</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="3">
+        <f t="shared" si="4"/>
+        <v>2196</v>
+      </c>
+      <c r="H9" s="23">
+        <f t="shared" si="5"/>
+        <v>2318</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="6"/>
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -888,23 +974,35 @@
         <f t="shared" si="3"/>
         <v>1552</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="3">
+        <f t="shared" si="4"/>
+        <v>1746</v>
+      </c>
+      <c r="H10" s="23">
+        <f t="shared" si="5"/>
+        <v>1843</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="6"/>
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E14" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E15" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E16" s="3">
         <v>70000</v>
       </c>
@@ -914,10 +1012,25 @@
         <v>80000</v>
       </c>
     </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="21">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="21">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="21">
+        <v>100000</v>
+      </c>
+    </row>
     <row r="51" spans="1:5" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
     </row>
@@ -939,8 +1052,8 @@
       <c r="E55" s="14"/>
     </row>
     <row r="56" spans="1:5" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="8"/>
       <c r="D56" s="7"/>
       <c r="E56" s="8"/>
@@ -950,9 +1063,9 @@
       <c r="E57" s="14"/>
     </row>
     <row r="58" spans="1:5" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
     </row>
@@ -973,8 +1086,8 @@
       <c r="E62" s="14"/>
     </row>
     <row r="63" spans="1:5" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="8"/>
       <c r="D63" s="9"/>
       <c r="E63" s="8"/>
@@ -987,9 +1100,9 @@
     </row>
     <row r="65" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:5" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
     </row>
@@ -1010,8 +1123,8 @@
       <c r="E70" s="14"/>
     </row>
     <row r="71" spans="1:5" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="8"/>
       <c r="D71" s="9"/>
       <c r="E71" s="8"/>
@@ -1025,9 +1138,9 @@
     </row>
     <row r="73" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="74" spans="1:5" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
     </row>
@@ -1083,7 +1196,6 @@
   <mergeCells count="10">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="A74:C74"/>
     <mergeCell ref="A56:B56"/>
@@ -1091,6 +1203,7 @@
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A66:C66"/>
     <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/EXPENSAS EDIFICIO.xlsx
+++ b/EXPENSAS EDIFICIO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>00-01</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>C/100.000</t>
+  </si>
+  <si>
+    <t>C/105.000</t>
+  </si>
+  <si>
+    <t>C/110.000</t>
   </si>
 </sst>
 </file>
@@ -182,6 +188,8 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -194,11 +202,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,26 +663,28 @@
     <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
@@ -698,8 +706,14 @@
       <c r="I2" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -719,14 +733,14 @@
         <v>1351</v>
       </c>
       <c r="F3" s="11">
-        <f t="shared" ref="F3:G10" si="3">+B3*$E$17/100</f>
+        <f t="shared" ref="F3:F10" si="3">+B3*$E$17/100</f>
         <v>1544</v>
       </c>
       <c r="G3" s="3">
         <f>+B3*$E$18/100</f>
         <v>1737</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="18">
         <f>+B3*$E$19/100</f>
         <v>1833.5</v>
       </c>
@@ -734,8 +748,16 @@
         <f>+B3*$E$20/100</f>
         <v>1930</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="18">
+        <f>+B3*$E$21/100</f>
+        <v>2026.5</v>
+      </c>
+      <c r="K3" s="3">
+        <f>+B3*$E$22/100</f>
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -762,7 +784,7 @@
         <f t="shared" ref="G4:G10" si="4">+B4*$E$18/100</f>
         <v>3348</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="18">
         <f t="shared" ref="H4:H10" si="5">+B4*$E$19/100</f>
         <v>3534</v>
       </c>
@@ -770,8 +792,16 @@
         <f t="shared" ref="I4:I10" si="6">+B4*$E$20/100</f>
         <v>3720</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="18">
+        <f t="shared" ref="J4:J10" si="7">+B4*$E$21/100</f>
+        <v>3906</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" ref="K4:K10" si="8">+B4*$E$22/100</f>
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -798,7 +828,7 @@
         <f t="shared" si="4"/>
         <v>2294.9999999999995</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="18">
         <f t="shared" si="5"/>
         <v>2422.4999999999995</v>
       </c>
@@ -806,8 +836,16 @@
         <f t="shared" si="6"/>
         <v>2549.9999999999995</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="18">
+        <f t="shared" si="7"/>
+        <v>2677.5</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="8"/>
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -834,7 +872,7 @@
         <f t="shared" si="4"/>
         <v>1782</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="18">
         <f t="shared" si="5"/>
         <v>1881</v>
       </c>
@@ -842,8 +880,16 @@
         <f t="shared" si="6"/>
         <v>1980</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="18">
+        <f t="shared" si="7"/>
+        <v>2079</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="8"/>
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -870,7 +916,7 @@
         <f t="shared" si="4"/>
         <v>2511</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="18">
         <f t="shared" si="5"/>
         <v>2650.5</v>
       </c>
@@ -878,8 +924,16 @@
         <f t="shared" si="6"/>
         <v>2790</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="18">
+        <f t="shared" si="7"/>
+        <v>2929.5</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="8"/>
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -906,7 +960,7 @@
         <f t="shared" si="4"/>
         <v>2529</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="18">
         <f t="shared" si="5"/>
         <v>2669.5</v>
       </c>
@@ -914,8 +968,16 @@
         <f t="shared" si="6"/>
         <v>2810</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="18">
+        <f t="shared" si="7"/>
+        <v>2950.5</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="8"/>
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -942,7 +1004,7 @@
         <f t="shared" si="4"/>
         <v>2196</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="18">
         <f t="shared" si="5"/>
         <v>2318</v>
       </c>
@@ -950,8 +1012,16 @@
         <f t="shared" si="6"/>
         <v>2440</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="18">
+        <f t="shared" si="7"/>
+        <v>2562</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="8"/>
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -978,7 +1048,7 @@
         <f t="shared" si="4"/>
         <v>1746</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="18">
         <f t="shared" si="5"/>
         <v>1843</v>
       </c>
@@ -986,51 +1056,120 @@
         <f t="shared" si="6"/>
         <v>1940</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="18">
+        <f t="shared" si="7"/>
+        <v>2037</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="8"/>
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E14" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E15" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E16" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="21">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E18" s="17">
         <v>90000</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="21">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E19" s="17">
         <v>95000</v>
       </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="21">
+      <c r="I19">
+        <v>105000</v>
+      </c>
+      <c r="J19">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E20" s="17">
         <v>100000</v>
       </c>
     </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E21" s="17">
+        <v>105000</v>
+      </c>
+      <c r="H21">
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E22" s="17">
+        <v>110000</v>
+      </c>
+      <c r="H22">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f>SUM(H21:H27)</f>
+        <v>53300</v>
+      </c>
+      <c r="I28">
+        <f>+I19-H28</f>
+        <v>51700</v>
+      </c>
+      <c r="J28">
+        <f>+J19-H28</f>
+        <v>56700</v>
+      </c>
+    </row>
     <row r="51" spans="1:5" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
     </row>
@@ -1052,8 +1191,8 @@
       <c r="E55" s="14"/>
     </row>
     <row r="56" spans="1:5" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
       <c r="C56" s="8"/>
       <c r="D56" s="7"/>
       <c r="E56" s="8"/>
@@ -1063,9 +1202,9 @@
       <c r="E57" s="14"/>
     </row>
     <row r="58" spans="1:5" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
     </row>
@@ -1086,8 +1225,8 @@
       <c r="E62" s="14"/>
     </row>
     <row r="63" spans="1:5" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="8"/>
       <c r="D63" s="9"/>
       <c r="E63" s="8"/>
@@ -1100,9 +1239,9 @@
     </row>
     <row r="65" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:5" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
     </row>
@@ -1123,8 +1262,8 @@
       <c r="E70" s="14"/>
     </row>
     <row r="71" spans="1:5" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="20"/>
-      <c r="B71" s="20"/>
+      <c r="A71" s="22"/>
+      <c r="B71" s="22"/>
       <c r="C71" s="8"/>
       <c r="D71" s="9"/>
       <c r="E71" s="8"/>
@@ -1138,9 +1277,9 @@
     </row>
     <row r="73" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="74" spans="1:5" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
     </row>
@@ -1203,7 +1342,7 @@
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A66:C66"/>
     <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
